--- a/_output/AM/UI Results/UI Result - p10(b) VS u4(a).xlsx
+++ b/_output/AM/UI Results/UI Result - p10(b) VS u4(a).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
   <si>
     <t>Feature</t>
   </si>
@@ -28,6 +28,12 @@
     <t>Chi Square</t>
   </si>
   <si>
+    <t>Observed</t>
+  </si>
+  <si>
+    <t>Expected</t>
+  </si>
+  <si>
     <t>Is Significant</t>
   </si>
   <si>
@@ -68,6 +74,78 @@
   </si>
   <si>
     <t>n5</t>
+  </si>
+  <si>
+    <t>[ 51 171] ; [16  4]</t>
+  </si>
+  <si>
+    <t>[ 76 142] ; [19  1]</t>
+  </si>
+  <si>
+    <t>[ 65 146] ; [16  4]</t>
+  </si>
+  <si>
+    <t>[  4 220] ; [ 4 16]</t>
+  </si>
+  <si>
+    <t>[ 72 150] ; [16  4]</t>
+  </si>
+  <si>
+    <t>[102 123] ; [18  2]</t>
+  </si>
+  <si>
+    <t>[ 10 214] ; [ 5 14]</t>
+  </si>
+  <si>
+    <t>[103 119] ; [18  2]</t>
+  </si>
+  <si>
+    <t>[ 81 141] ; [14  3]</t>
+  </si>
+  <si>
+    <t>[47 97] ; [15  5]</t>
+  </si>
+  <si>
+    <t>[ 96 124] ; [17  3]</t>
+  </si>
+  <si>
+    <t>[123 100] ; [19  1]</t>
+  </si>
+  <si>
+    <t>[ 61.46280992 160.53719008] ; [ 5.53719008 14.46280992]</t>
+  </si>
+  <si>
+    <t>[ 87.01680672 130.98319328] ; [ 7.98319328 12.01680672]</t>
+  </si>
+  <si>
+    <t>[ 73.98701299 137.01298701] ; [ 7.01298701 12.98701299]</t>
+  </si>
+  <si>
+    <t>[  7.3442623 216.6557377] ; [ 0.6557377 19.3442623]</t>
+  </si>
+  <si>
+    <t>[ 80.72727273 141.27272727] ; [ 7.27272727 12.72727273]</t>
+  </si>
+  <si>
+    <t>[110.20408163 114.79591837] ; [ 9.79591837 10.20408163]</t>
+  </si>
+  <si>
+    <t>[ 13.82716049 210.17283951] ; [ 1.17283951 17.82716049]</t>
+  </si>
+  <si>
+    <t>[111. 111.] ; [10. 10.]</t>
+  </si>
+  <si>
+    <t>[ 88.24267782 133.75732218] ; [ 6.75732218 10.24267782]</t>
+  </si>
+  <si>
+    <t>[54.43902439 89.56097561] ; [ 7.56097561 12.43902439]</t>
+  </si>
+  <si>
+    <t>[103.58333333 116.41666667] ; [ 9.41666667 10.58333333]</t>
+  </si>
+  <si>
+    <t>[130.3127572  92.6872428] ; [11.6872428  8.3127572]</t>
   </si>
 </sst>
 </file>
@@ -425,13 +503,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -447,13 +525,19 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -464,16 +548,22 @@
       <c r="E2">
         <v>29.802105</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -484,16 +574,22 @@
       <c r="E3">
         <v>27.624613</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -504,16 +600,22 @@
       <c r="E4">
         <v>19.416813</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -524,16 +626,22 @@
       <c r="E5">
         <v>19.208354</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -544,16 +652,22 @@
       <c r="E6">
         <v>17.939768</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -564,16 +678,22 @@
       <c r="E7">
         <v>14.664067</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -584,16 +704,22 @@
       <c r="E8">
         <v>14.439244</v>
       </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -604,16 +730,22 @@
       <c r="E9">
         <v>13.953153</v>
       </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -624,16 +756,22 @@
       <c r="E10">
         <v>13.870881</v>
       </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="F10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -644,16 +782,22 @@
       <c r="E11">
         <v>13.402295</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="F11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -664,16 +808,22 @@
       <c r="E12">
         <v>13.402295</v>
       </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="F12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -684,16 +834,22 @@
       <c r="E13">
         <v>12.58981</v>
       </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="F13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -704,7 +860,13 @@
       <c r="E14">
         <v>11.996003</v>
       </c>
-      <c r="F14">
+      <c r="F14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14">
         <v>1</v>
       </c>
     </row>
